--- a/biology/Zoologie/Caprimulgiformes/Caprimulgiformes.xlsx
+++ b/biology/Zoologie/Caprimulgiformes/Caprimulgiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caprimulgiformes sont un ordre d'oiseaux. Ses espèces sont nommées podarges, guacharo, ibijaux et engoulevents.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux nocturnes ayant de longues ailes, de petites pattes et un bec court mais une gueule très large leur permettant de capturer leurs proies, notamment des insectes en vol. La majorité des espèces possède un plumage cryptique, à dominance brune, grise et beige, permettant aux oiseaux de ce groupe de rester camouflés durant la journée au sol ou dans les arbres.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les caprimulgiformes sont présents sur tous les continents excepté l'Antarctique.
@@ -576,14 +592,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cet ordre comprend 4 familles d'oiseaux (par ordre phylogénique) :
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cet ordre comprend 4 familles d'oiseaux (par ordre phylogénique) :
 Podargidae : podarges (16 espèces)
 Steatornithidae : guacharo (1 espèce)
 Nyctibiidae : ibijaux (7 espèces)
-Caprimulgidae : engoulevents  (98 espèces)
-Position systématique
-Dans la taxinomie Sibley-Ahlquist, l'ordre des Caprimulgiformes était intégrée à l'ordre élargi des Strigiformes. Il regroupait alors ces quatre familles plus celle des Aegothelidae.
+Caprimulgidae : engoulevents  (98 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caprimulgiformes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caprimulgiformes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Position systématique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la taxinomie Sibley-Ahlquist, l'ordre des Caprimulgiformes était intégrée à l'ordre élargi des Strigiformes. Il regroupait alors ces quatre familles plus celle des Aegothelidae.
 </t>
         </is>
       </c>
